--- a/output/fit_clients/fit_round_162.xlsx
+++ b/output/fit_clients/fit_round_162.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2190172319.709402</v>
+        <v>2119813813.303909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07168847399775129</v>
+        <v>0.1145326175588705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04150600259460165</v>
+        <v>0.04511956447587377</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1095086181.00967</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1983700064.002466</v>
+        <v>2401792183.02746</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1839340380157963</v>
+        <v>0.1434408745683209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05038622596863185</v>
+        <v>0.03346045536697477</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>991850069.4983157</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4261304485.943966</v>
+        <v>4718103158.556172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15083988306916</v>
+        <v>0.1330361220296932</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03454728569054042</v>
+        <v>0.02922752642895337</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2130652275.629751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3364849547.09511</v>
+        <v>2660381862.051282</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09109697210999024</v>
+        <v>0.1002837992764147</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04892524862714449</v>
+        <v>0.04814510906768632</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1682424819.25168</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2531832596.875423</v>
+        <v>2251086542.176078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1418987594696735</v>
+        <v>0.1029132575754882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0492153071380364</v>
+        <v>0.05505818223796542</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1265916270.439352</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2880523274.428833</v>
+        <v>2750030393.851814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08899944696650701</v>
+        <v>0.09928461438337666</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04432721238674905</v>
+        <v>0.04342434990250503</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1440261613.583211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2554554333.102679</v>
+        <v>2438903328.696709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.173058669308461</v>
+        <v>0.2183318946183723</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02420924152873209</v>
+        <v>0.0305671915570094</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1277277178.502555</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2096319905.249559</v>
+        <v>1932478057.581748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1421741975525684</v>
+        <v>0.1931917152898355</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03258911079149841</v>
+        <v>0.02376580215916025</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1048159965.844733</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4674186577.103895</v>
+        <v>4818602717.21267</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1377431422284936</v>
+        <v>0.1617403234783301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04751279864768108</v>
+        <v>0.04896693941500253</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>68</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2337093362.595804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4171320240.538319</v>
+        <v>2884335547.466383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.168759162341498</v>
+        <v>0.133890288108763</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04726094357386449</v>
+        <v>0.030692506890815</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2085660144.85246</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2472791536.902689</v>
+        <v>2483779023.968137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1705721155374443</v>
+        <v>0.1559757094788602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05103918611265707</v>
+        <v>0.03692264748273449</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1236395738.163121</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3378032326.440212</v>
+        <v>4503293476.60258</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1017202283080064</v>
+        <v>0.07445163866847178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02144491850890136</v>
+        <v>0.02724152611469274</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>54</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1689016249.714252</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2566730575.8935</v>
+        <v>3323917036.667646</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1604693712534804</v>
+        <v>0.1565748048320505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03969419573896553</v>
+        <v>0.03102139958332252</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1283365353.71398</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1529406326.724529</v>
+        <v>1646200152.327249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07627780350556798</v>
+        <v>0.09117369575903664</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0386047765327239</v>
+        <v>0.03279650620627363</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>764703255.4986279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1860442392.617184</v>
+        <v>2173582481.165733</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058158714323448</v>
+        <v>0.1071807164849312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04863226617203167</v>
+        <v>0.04484612937784464</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>930221284.2386091</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4378761435.043095</v>
+        <v>5177379246.136028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1230678219056885</v>
+        <v>0.1167947813641563</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0423594988037066</v>
+        <v>0.03926827830432638</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2189380733.387984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2490856362.135214</v>
+        <v>3379348143.533077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1258212083791702</v>
+        <v>0.1398242655360719</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02770648294167861</v>
+        <v>0.02212942037145885</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1245428248.157739</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212075924.635885</v>
+        <v>1359161809.066923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1175362949606674</v>
+        <v>0.1846942806534399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01847342210994518</v>
+        <v>0.02296684531672317</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>606038043.1456099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2681875745.372432</v>
+        <v>1994432984.355284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009070970090803</v>
+        <v>0.1305907039403781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02728882523719778</v>
+        <v>0.01952629327820123</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1340937826.359821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2011028403.934474</v>
+        <v>2040455727.910821</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09052285864183886</v>
+        <v>0.07228891321829761</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04613611979058443</v>
+        <v>0.03074517967684068</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1005514236.842734</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2651740962.966628</v>
+        <v>3342689392.655366</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09699746406552553</v>
+        <v>0.1099487410769993</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04415377787727801</v>
+        <v>0.04453804245168567</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1325870563.840818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302360034.747037</v>
+        <v>1035729800.362863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1684084015654364</v>
+        <v>0.1778693419195076</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04461994057132188</v>
+        <v>0.04996168298560762</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>651180036.577222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3927146464.740741</v>
+        <v>4055449816.483773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1263510223193286</v>
+        <v>0.1281926973414325</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03369139870783029</v>
+        <v>0.02597762267958153</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>47</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1963573205.233503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1401030152.970717</v>
+        <v>1448271688.158344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09536291421341732</v>
+        <v>0.08475676144542685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02717228784722069</v>
+        <v>0.02338937244450113</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>700515048.1711049</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102769819.69186</v>
+        <v>1409782256.512921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1168598973200072</v>
+        <v>0.07980662874742443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03147716071966374</v>
+        <v>0.03074373915146091</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>551384907.0336279</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2886661588.178181</v>
+        <v>4156959565.436049</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1486683866488989</v>
+        <v>0.1018034635009657</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02114429709856745</v>
+        <v>0.0219920961650872</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1443330859.482105</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3219900655.09718</v>
+        <v>3291021141.104817</v>
       </c>
       <c r="F28" t="n">
-        <v>0.12341114989143</v>
+        <v>0.1153563387477752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0500529005088179</v>
+        <v>0.04297635553078983</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>52</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1609950357.822037</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4473002182.980604</v>
+        <v>4255668626.68145</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1385091973082204</v>
+        <v>0.1203281487598475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03452654513165046</v>
+        <v>0.03073630868650514</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>73</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2236501075.5788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2209924714.831552</v>
+        <v>2259926984.194071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08923469001376579</v>
+        <v>0.1367748652888468</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03234552415444031</v>
+        <v>0.02999764941712824</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1104962418.777263</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1468229428.00152</v>
+        <v>1400656441.003732</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1058955939612645</v>
+        <v>0.09027776675655289</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04647354293873499</v>
+        <v>0.03357821640339925</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>734114602.2920209</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1765273410.256293</v>
+        <v>1501435213.173482</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08991304094762785</v>
+        <v>0.08573915653277513</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02970403428521773</v>
+        <v>0.02532243118455659</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>882636828.3678932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2170918735.531301</v>
+        <v>2624280653.565948</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1935569013643603</v>
+        <v>0.2005094213988691</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04587219708096389</v>
+        <v>0.05617796526189172</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1085459433.961222</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1292877404.700514</v>
+        <v>1190318804.680114</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1147465455308138</v>
+        <v>0.07582262549830654</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02331321264158619</v>
+        <v>0.02234549749938529</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>646438692.1433645</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1119283342.501219</v>
+        <v>1356697568.258549</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0846868459473047</v>
+        <v>0.1155043433522644</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03391291319863259</v>
+        <v>0.03877345805857787</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>559641663.6370059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2621683794.281954</v>
+        <v>2779125013.724216</v>
       </c>
       <c r="F36" t="n">
-        <v>0.111116456425771</v>
+        <v>0.1555934790685958</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01756038071730858</v>
+        <v>0.02466754235666976</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1310841909.349511</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2736816808.419886</v>
+        <v>2332262765.133415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060414535676158</v>
+        <v>0.08686492350492658</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03366634301757263</v>
+        <v>0.03417108870522152</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1368408532.80289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1712629603.030741</v>
+        <v>2149790171.005947</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09491956741442337</v>
+        <v>0.1173342106137828</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03809101972575685</v>
+        <v>0.0349774284839561</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>856314820.7030189</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1855631082.758788</v>
+        <v>2084015107.77741</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1731238257039125</v>
+        <v>0.1641088639568773</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03259768290955386</v>
+        <v>0.02011054960656944</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>927815557.8148122</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1357273184.33184</v>
+        <v>1640773406.839385</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1289990286640784</v>
+        <v>0.1196290690774874</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05560305236870868</v>
+        <v>0.05665305711703929</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>678636594.0649041</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2821879444.680549</v>
+        <v>2420648777.537096</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1652695687250957</v>
+        <v>0.14707783169928</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04405896976904777</v>
+        <v>0.03117712671779895</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>40</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1410939716.054126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3691878194.163306</v>
+        <v>4319769370.413682</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1091386154622156</v>
+        <v>0.08611791939905843</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04445708051889776</v>
+        <v>0.03754182242529599</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>55</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1845939105.126963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1929666004.254274</v>
+        <v>2896223879.105269</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1382649202065853</v>
+        <v>0.149897325845757</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01722851188106334</v>
+        <v>0.01789567403718057</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>964833108.1008744</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2108749047.204956</v>
+        <v>1744592903.675581</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09309434964763622</v>
+        <v>0.08387733374631365</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0282465090541436</v>
+        <v>0.02963651673146104</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1054374651.603819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1787316615.915009</v>
+        <v>2336088327.31289</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1750919317517486</v>
+        <v>0.1581129840057747</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03558180390144041</v>
+        <v>0.03878479368485453</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>893658277.3613856</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4088327855.82744</v>
+        <v>4563995822.911635</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723857650880217</v>
+        <v>0.1113731084616437</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03927949813002383</v>
+        <v>0.03925784561501922</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>58</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2044163902.48202</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3722414086.564664</v>
+        <v>3149016097.77078</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1550041083951453</v>
+        <v>0.1782620083153324</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0443073777116761</v>
+        <v>0.04205268369008588</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>43</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1861207026.661018</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3126453896.217697</v>
+        <v>4218491324.07071</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08709276555819338</v>
+        <v>0.1006561242640632</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03718859188258214</v>
+        <v>0.02880068785274663</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1563227033.231356</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1365814245.419855</v>
+        <v>1699598459.325136</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1244263606156192</v>
+        <v>0.1472405413358036</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03384590873115423</v>
+        <v>0.02866726346951162</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>682907175.5513005</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2917145078.274905</v>
+        <v>2656806006.41122</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1237607679332872</v>
+        <v>0.171750175587478</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04636862303923987</v>
+        <v>0.03432963112250082</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>55</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1458572604.819003</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1529634072.116337</v>
+        <v>1419758510.739012</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1740151744863521</v>
+        <v>0.1785714639340096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04887751940098325</v>
+        <v>0.03933575347567889</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>764817034.1575017</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4128512335.647438</v>
+        <v>5306399529.940672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1109245767601562</v>
+        <v>0.1219257834310322</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05781568461395255</v>
+        <v>0.05033917989372644</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2064256216.714712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3328200515.602881</v>
+        <v>2365947635.363379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1519628115151347</v>
+        <v>0.1410732495457162</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02147395182704588</v>
+        <v>0.02944848756701452</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>46</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1664100267.545345</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4208081236.549632</v>
+        <v>4872116316.398554</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1423661173448914</v>
+        <v>0.1146030585623563</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03644056749249205</v>
+        <v>0.03353355942760218</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2104040698.653859</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3530116814.609283</v>
+        <v>3457078004.180301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1394593779623018</v>
+        <v>0.2082077137033272</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02555865039640134</v>
+        <v>0.02399512025484426</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1765058361.464464</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1771589000.210817</v>
+        <v>1138991092.084842</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1201701672445233</v>
+        <v>0.1254878306565575</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05782742469299558</v>
+        <v>0.05655452547279079</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>885794502.1010364</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4498126504.257645</v>
+        <v>2905814064.813182</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1808000342909441</v>
+        <v>0.156570462210013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0262577545221157</v>
+        <v>0.02472201568261204</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>51</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2249063382.296317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1778587453.044445</v>
+        <v>1818653690.337237</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2011717676317207</v>
+        <v>0.1752380404715511</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02521487710142415</v>
+        <v>0.02697803551506985</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>889293732.2048317</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4691715212.492607</v>
+        <v>5339550779.017893</v>
       </c>
       <c r="F59" t="n">
-        <v>0.123919993376807</v>
+        <v>0.126399751936439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04023270218379547</v>
+        <v>0.04614888059322869</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2345857548.809966</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3295506179.666009</v>
+        <v>3198566544.2069</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1522791821734591</v>
+        <v>0.1931285709164944</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02367363140117706</v>
+        <v>0.02865912095599476</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1647753191.14913</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2246626025.872539</v>
+        <v>2282853360.979033</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1712951787947986</v>
+        <v>0.171476126533245</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0292093559398802</v>
+        <v>0.02893528495806103</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1123313064.416604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1610293248.489446</v>
+        <v>1771469970.597712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1942915483793632</v>
+        <v>0.1797659484639123</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04381193331561421</v>
+        <v>0.03191957229843781</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>805146623.8394009</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3575562086.903533</v>
+        <v>3870837375.445985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06769200594916933</v>
+        <v>0.1041672335508118</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03552959227768113</v>
+        <v>0.04674365106786114</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1787781124.735592</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4281822773.76287</v>
+        <v>3448192097.939512</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1529820898381441</v>
+        <v>0.1588340760754546</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02821424614596524</v>
+        <v>0.0253229169149631</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>50</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2140911442.520452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4104789948.750798</v>
+        <v>4858411813.516034</v>
       </c>
       <c r="F65" t="n">
-        <v>0.157766704848327</v>
+        <v>0.1428944578753374</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03195967937118736</v>
+        <v>0.01997811441940224</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>58</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2052394986.673656</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5007590213.193261</v>
+        <v>3627847771.688749</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1294187039974259</v>
+        <v>0.1459079305474296</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03156391715515521</v>
+        <v>0.03724181922280014</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>47</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2503795134.165561</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2164067851.536355</v>
+        <v>2753627919.474577</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08423498022639465</v>
+        <v>0.08164217344459292</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03580069119392398</v>
+        <v>0.0428777714575784</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1082034014.789431</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5455226312.096395</v>
+        <v>5289521530.371042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1395732192445501</v>
+        <v>0.1284525536250278</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04075039797572168</v>
+        <v>0.04069236392277039</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2727613239.986058</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1843386056.207075</v>
+        <v>2181977847.926497</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1510396978844242</v>
+        <v>0.125541161072313</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04496571236402166</v>
+        <v>0.03756393960752848</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>921693012.7556626</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3608983049.837049</v>
+        <v>3594620348.491701</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06883437811328369</v>
+        <v>0.07301601927413291</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03541973810582977</v>
+        <v>0.03980630340609716</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>46</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1804491541.510722</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5466055561.159635</v>
+        <v>3830687339.608719</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272264158403944</v>
+        <v>0.1161093764633198</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02292747996662807</v>
+        <v>0.03005150908517143</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>59</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2733027921.026881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1518448107.558768</v>
+        <v>1717574924.466638</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07980460951399335</v>
+        <v>0.09882240039048738</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03662110324613319</v>
+        <v>0.05175863494641828</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>759224077.7542411</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2212837485.673492</v>
+        <v>3086549187.161016</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08671817031985384</v>
+        <v>0.09065311816099264</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05228563188898063</v>
+        <v>0.04553549144472942</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1106418810.847769</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3223812527.747257</v>
+        <v>2946797005.703185</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1184744658236801</v>
+        <v>0.1336221675577413</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02651552562418955</v>
+        <v>0.02909369017294942</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>55</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1611906309.853733</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1860938874.351443</v>
+        <v>1837221685.712065</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1036899756579634</v>
+        <v>0.1199839573843428</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02442915217931331</v>
+        <v>0.03013892216348057</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>930469414.4172033</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4627476167.048779</v>
+        <v>5056653509.356695</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0918083358463692</v>
+        <v>0.08172604136317832</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03279077075828388</v>
+        <v>0.0252085777958057</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2313738094.544551</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1903955231.4923</v>
+        <v>1799775535.215021</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1442848478933327</v>
+        <v>0.18683874791948</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02426030428008662</v>
+        <v>0.02659112512944332</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>951977663.0178163</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4329716114.868748</v>
+        <v>3427220186.648127</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1124993998776929</v>
+        <v>0.1060808750133133</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04356399061959387</v>
+        <v>0.0364805073260796</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2164857999.510519</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1193736818.344568</v>
+        <v>1476688870.806167</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1649683305662945</v>
+        <v>0.1292677953650324</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0402650309863503</v>
+        <v>0.02787270810204814</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>596868389.7745364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4021336872.852736</v>
+        <v>3455198254.775969</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09865793566414997</v>
+        <v>0.07192463969754763</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0317329973935146</v>
+        <v>0.03647106695312548</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2010668436.92096</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3760143165.359734</v>
+        <v>3787781784.961918</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1341366244948437</v>
+        <v>0.1037871401874737</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02671089794145925</v>
+        <v>0.02208262428820644</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>36</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1880071536.948195</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5544410316.058438</v>
+        <v>3476312863.980195</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1958352343923423</v>
+        <v>0.1743478199090903</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02583679232625423</v>
+        <v>0.02802210056481786</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>59</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2772205111.527886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2006491662.883427</v>
+        <v>1889139341.718647</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1526559952439696</v>
+        <v>0.1264557672126494</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04368543678879019</v>
+        <v>0.03639174678709523</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1003245817.563105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2421459070.625533</v>
+        <v>2485982750.084025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075551950483247</v>
+        <v>0.1094483166117092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04178904840580527</v>
+        <v>0.04738214577240343</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1210729478.539099</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2672545444.085854</v>
+        <v>3060625104.970135</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1502816044075287</v>
+        <v>0.1243566787271609</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04264304131841463</v>
+        <v>0.04714393219910964</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>61</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1336272746.012946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2186939476.595093</v>
+        <v>2222574094.779281</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1112374326968705</v>
+        <v>0.1313175821639947</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02356536516168949</v>
+        <v>0.01992807227633108</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>21</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1093469791.899485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>949635083.1739151</v>
+        <v>1506184828.433693</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1210925473539826</v>
+        <v>0.173974190580867</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04382016794033014</v>
+        <v>0.03999727462434517</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>474817532.970272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3090212321.392457</v>
+        <v>3213487972.236472</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1095033809266406</v>
+        <v>0.1235811177490714</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03869094594642571</v>
+        <v>0.02865757884182238</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>65</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1545106200.02703</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3079365119.734937</v>
+        <v>2334353730.028058</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1281333970944258</v>
+        <v>0.1481497995571335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03768220298952106</v>
+        <v>0.03394762247269337</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>56</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1539682592.121405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1998736213.763417</v>
+        <v>1413542665.152402</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1316284643468623</v>
+        <v>0.1044324774031872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04814116874152647</v>
+        <v>0.05603193624029303</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>999368176.8922421</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1682810146.134264</v>
+        <v>2003866210.918303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1620308959372443</v>
+        <v>0.1388659014268429</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0383037138505208</v>
+        <v>0.05511921915693179</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>841405087.6000947</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2514712265.258824</v>
+        <v>1852348255.344719</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08020061578724152</v>
+        <v>0.1096285410233453</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03632840329423908</v>
+        <v>0.0290708469932552</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1257356117.689839</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4352881651.324421</v>
+        <v>3854470778.414222</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1270567964379626</v>
+        <v>0.1282876080353201</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03348344091103753</v>
+        <v>0.03554490993712635</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2176440803.446174</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2040237930.443054</v>
+        <v>2483294255.115471</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1678447849083191</v>
+        <v>0.1548336449066373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03881274084805562</v>
+        <v>0.02673822050907223</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1020118968.787657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2759695493.669999</v>
+        <v>2041213184.482306</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09551766062225864</v>
+        <v>0.1118904528510615</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04404534684722988</v>
+        <v>0.05293227600526074</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1379847764.011755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1741122763.517573</v>
+        <v>2025669503.988458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1201234524892517</v>
+        <v>0.1323446602252117</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03743097987296351</v>
+        <v>0.04335221645181354</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>870561396.3435967</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4026818498.933341</v>
+        <v>4140494258.407088</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1632583109924287</v>
+        <v>0.1183688109426258</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02892906247573971</v>
+        <v>0.02480627348147527</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2013409307.972826</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2763822265.342769</v>
+        <v>3012402183.39704</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065748297304291</v>
+        <v>0.09228437035126441</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02356047574370395</v>
+        <v>0.02223079486724616</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>43</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1381911101.332904</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3145169430.325778</v>
+        <v>2734048662.157255</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1283473984528178</v>
+        <v>0.1242367605945105</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03087081238553398</v>
+        <v>0.0247840405620996</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>51</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1572584711.610181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3385271964.327887</v>
+        <v>3875127618.528064</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1501145118254594</v>
+        <v>0.1340519082682302</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0263430119684419</v>
+        <v>0.01900764582024371</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>49</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1692636003.740019</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2319716795.113653</v>
+        <v>3154054096.98231</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1596105070242366</v>
+        <v>0.1908571812258723</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05281581061924261</v>
+        <v>0.04946859472238931</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1159858396.684191</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_162.xlsx
+++ b/output/fit_clients/fit_round_162.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2119813813.303909</v>
+        <v>1979772675.982674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1145326175588705</v>
+        <v>0.08978656285573527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04511956447587377</v>
+        <v>0.03945944268450285</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2401792183.02746</v>
+        <v>1798329069.765955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1434408745683209</v>
+        <v>0.1542947982787236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03346045536697477</v>
+        <v>0.03144746485278723</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4718103158.556172</v>
+        <v>4795801582.657955</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1330361220296932</v>
+        <v>0.1300996636761956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02922752642895337</v>
+        <v>0.03733363819585522</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2660381862.051282</v>
+        <v>2905742487.498992</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1002837992764147</v>
+        <v>0.1031664851408879</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04814510906768632</v>
+        <v>0.04118855996263918</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2251086542.176078</v>
+        <v>1928017218.180406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1029132575754882</v>
+        <v>0.1118166028242053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05505818223796542</v>
+        <v>0.0370099029030969</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2750030393.851814</v>
+        <v>2769239910.75247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09928461438337666</v>
+        <v>0.09190074444570451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04342434990250503</v>
+        <v>0.04058737160429291</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2438903328.696709</v>
+        <v>2478565836.171359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2183318946183723</v>
+        <v>0.152500173288069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0305671915570094</v>
+        <v>0.02043195281340481</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1932478057.581748</v>
+        <v>1717771608.468088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1931917152898355</v>
+        <v>0.1481989477581949</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02376580215916025</v>
+        <v>0.02507553341428692</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4818602717.21267</v>
+        <v>4701479153.654201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1617403234783301</v>
+        <v>0.1459531010397132</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04896693941500253</v>
+        <v>0.03650582555393463</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2884335547.466383</v>
+        <v>3042704392.298206</v>
       </c>
       <c r="F11" t="n">
-        <v>0.133890288108763</v>
+        <v>0.1581861049806059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.030692506890815</v>
+        <v>0.04752006393016843</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2483779023.968137</v>
+        <v>3085029050.421859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1559757094788602</v>
+        <v>0.1992082459383803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03692264748273449</v>
+        <v>0.0533522111987182</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4503293476.60258</v>
+        <v>5316845269.430598</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07445163866847178</v>
+        <v>0.08802239265579122</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02724152611469274</v>
+        <v>0.02412552040883036</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3323917036.667646</v>
+        <v>2483122643.616327</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1565748048320505</v>
+        <v>0.1362028332529516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03102139958332252</v>
+        <v>0.03407893747195707</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1646200152.327249</v>
+        <v>1376297293.718002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09117369575903664</v>
+        <v>0.08495584338632751</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03279650620627363</v>
+        <v>0.04361445149317224</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2173582481.165733</v>
+        <v>2843097902.485013</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071807164849312</v>
+        <v>0.09226652374771209</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04484612937784464</v>
+        <v>0.03946525390374465</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5177379246.136028</v>
+        <v>3932016020.204696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1167947813641563</v>
+        <v>0.1198834195767272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03926827830432638</v>
+        <v>0.03933306533129715</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3379348143.533077</v>
+        <v>3674186009.097986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1398242655360719</v>
+        <v>0.1673069460175575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02212942037145885</v>
+        <v>0.03082582609529329</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1359161809.066923</v>
+        <v>1258962143.993228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1846942806534399</v>
+        <v>0.156062595059428</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02296684531672317</v>
+        <v>0.02633303561325548</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1994432984.355284</v>
+        <v>2049849203.380921</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305907039403781</v>
+        <v>0.138313385007594</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01952629327820123</v>
+        <v>0.02667695908413074</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2040455727.910821</v>
+        <v>2158453867.984609</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07228891321829761</v>
+        <v>0.08260050616053342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03074517967684068</v>
+        <v>0.04034905116470268</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3342689392.655366</v>
+        <v>3858907867.662842</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1099487410769993</v>
+        <v>0.102012922613703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04453804245168567</v>
+        <v>0.04517442612944791</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1035729800.362863</v>
+        <v>1399544780.633</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1778693419195076</v>
+        <v>0.1508509237767371</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04996168298560762</v>
+        <v>0.0453709719897006</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4055449816.483773</v>
+        <v>2901105182.368737</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281926973414325</v>
+        <v>0.1258137379661814</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02597762267958153</v>
+        <v>0.02805590409035257</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1448271688.158344</v>
+        <v>901613323.6999998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08475676144542685</v>
+        <v>0.09375684048493388</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02338937244450113</v>
+        <v>0.02823822498717089</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1409782256.512921</v>
+        <v>1023185311.270979</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07980662874742443</v>
+        <v>0.1188299591693369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03074373915146091</v>
+        <v>0.03260821714618488</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4156959565.436049</v>
+        <v>3369425558.770428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1018034635009657</v>
+        <v>0.1110647766385169</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0219920961650872</v>
+        <v>0.02346013122418002</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3291021141.104817</v>
+        <v>2455716025.721963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1153563387477752</v>
+        <v>0.1151579238655158</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04297635553078983</v>
+        <v>0.05019455375278792</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4255668626.68145</v>
+        <v>5174479119.697348</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1203281487598475</v>
+        <v>0.1207401128960307</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03073630868650514</v>
+        <v>0.04643878167764435</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2259926984.194071</v>
+        <v>1466949510.321486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1367748652888468</v>
+        <v>0.09120300708343732</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02999764941712824</v>
+        <v>0.03914315892325355</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1400656441.003732</v>
+        <v>1367135519.802317</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09027776675655289</v>
+        <v>0.06816906965048414</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03357821640339925</v>
+        <v>0.040231857695712</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1501435213.173482</v>
+        <v>1352366813.323843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08573915653277513</v>
+        <v>0.0995359543619346</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02532243118455659</v>
+        <v>0.03152086033598902</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2624280653.565948</v>
+        <v>2212321710.356863</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2005094213988691</v>
+        <v>0.1706074244201261</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05617796526189172</v>
+        <v>0.04243113120946017</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1190318804.680114</v>
+        <v>1294167020.605709</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07582262549830654</v>
+        <v>0.1191266069838627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02234549749938529</v>
+        <v>0.02120230990114802</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1356697568.258549</v>
+        <v>1137875358.985021</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1155043433522644</v>
+        <v>0.08089811697213062</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03877345805857787</v>
+        <v>0.03281124662447284</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2779125013.724216</v>
+        <v>2357757449.373532</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1555934790685958</v>
+        <v>0.1648738610567528</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02466754235666976</v>
+        <v>0.02252523159912678</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2332262765.133415</v>
+        <v>2868049667.03488</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08686492350492658</v>
+        <v>0.0831842847366239</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03417108870522152</v>
+        <v>0.02863421994106896</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2149790171.005947</v>
+        <v>1485831904.970888</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173342106137828</v>
+        <v>0.07607263844997256</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0349774284839561</v>
+        <v>0.03818659424569376</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2084015107.77741</v>
+        <v>2143432954.679784</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1641088639568773</v>
+        <v>0.1205174491739098</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02011054960656944</v>
+        <v>0.02876517690368434</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1640773406.839385</v>
+        <v>1391538322.869242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1196290690774874</v>
+        <v>0.1592177283938981</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05665305711703929</v>
+        <v>0.05865421924155579</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2420648777.537096</v>
+        <v>2380438813.627499</v>
       </c>
       <c r="F41" t="n">
-        <v>0.14707783169928</v>
+        <v>0.1619860388153954</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03117712671779895</v>
+        <v>0.02902749269697954</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4319769370.413682</v>
+        <v>3109197610.487334</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08611791939905843</v>
+        <v>0.08195580673724595</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03754182242529599</v>
+        <v>0.03292595292769384</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2896223879.105269</v>
+        <v>2573906421.705806</v>
       </c>
       <c r="F43" t="n">
-        <v>0.149897325845757</v>
+        <v>0.1911724766889947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01789567403718057</v>
+        <v>0.02418559522721963</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1744592903.675581</v>
+        <v>2228755748.752795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08387733374631365</v>
+        <v>0.09176940600336086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02963651673146104</v>
+        <v>0.02505282766317424</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2336088327.31289</v>
+        <v>1924392671.446535</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1581129840057747</v>
+        <v>0.1407412177126025</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03878479368485453</v>
+        <v>0.03718675899407276</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4563995822.911635</v>
+        <v>5226734807.153105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1113731084616437</v>
+        <v>0.1128081015168437</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03925784561501922</v>
+        <v>0.03945436655259958</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3149016097.77078</v>
+        <v>4901683801.348719</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1782620083153324</v>
+        <v>0.2027081124663372</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04205268369008588</v>
+        <v>0.05955482037894155</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4218491324.07071</v>
+        <v>4005732404.799384</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1006561242640632</v>
+        <v>0.0682460666178802</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02880068785274663</v>
+        <v>0.02463578415199477</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1699598459.325136</v>
+        <v>1511319348.788573</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1472405413358036</v>
+        <v>0.1887458513661809</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02866726346951162</v>
+        <v>0.03384641423537336</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2656806006.41122</v>
+        <v>3424788447.909147</v>
       </c>
       <c r="F50" t="n">
-        <v>0.171750175587478</v>
+        <v>0.1219767664188163</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03432963112250082</v>
+        <v>0.04629045879496728</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1419758510.739012</v>
+        <v>993570190.9087968</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1785714639340096</v>
+        <v>0.1213137423949815</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03933575347567889</v>
+        <v>0.04053821250793758</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5306399529.940672</v>
+        <v>4784040838.663828</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1219257834310322</v>
+        <v>0.1063560072900036</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05033917989372644</v>
+        <v>0.04905451049707314</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2365947635.363379</v>
+        <v>3747891575.664244</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1410732495457162</v>
+        <v>0.1532836704578814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02944848756701452</v>
+        <v>0.02613435010305938</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4872116316.398554</v>
+        <v>4190079008.026338</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1146030585623563</v>
+        <v>0.1176282948630293</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03353355942760218</v>
+        <v>0.04441144916385236</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3457078004.180301</v>
+        <v>3815262705.937717</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2082077137033272</v>
+        <v>0.181545497789075</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02399512025484426</v>
+        <v>0.02098277075358937</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1138991092.084842</v>
+        <v>1320139763.210712</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1254878306565575</v>
+        <v>0.1236325981556439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05655452547279079</v>
+        <v>0.04883504407024406</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2905814064.813182</v>
+        <v>3066830305.918593</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156570462210013</v>
+        <v>0.1570635735340756</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02472201568261204</v>
+        <v>0.02586448054135127</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1818653690.337237</v>
+        <v>1461719191.03478</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1752380404715511</v>
+        <v>0.1542884986979239</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02697803551506985</v>
+        <v>0.03945223590344209</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5339550779.017893</v>
+        <v>3769471966.661998</v>
       </c>
       <c r="F59" t="n">
-        <v>0.126399751936439</v>
+        <v>0.128572139671069</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04614888059322869</v>
+        <v>0.04784945582507274</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3198566544.2069</v>
+        <v>3450744160.656343</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1931285709164944</v>
+        <v>0.1344944419984263</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02865912095599476</v>
+        <v>0.02763115942258836</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2282853360.979033</v>
+        <v>2879345287.068838</v>
       </c>
       <c r="F61" t="n">
-        <v>0.171476126533245</v>
+        <v>0.1711496406464089</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02893528495806103</v>
+        <v>0.02952133341375276</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1771469970.597712</v>
+        <v>1919201834.016603</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1797659484639123</v>
+        <v>0.1773992178991625</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03191957229843781</v>
+        <v>0.03368786382216338</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3870837375.445985</v>
+        <v>4371633349.899444</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041672335508118</v>
+        <v>0.0965641413450488</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04674365106786114</v>
+        <v>0.04140059520330017</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3448192097.939512</v>
+        <v>3387287809.563027</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1588340760754546</v>
+        <v>0.1541706236581163</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0253229169149631</v>
+        <v>0.02423311113854922</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4858411813.516034</v>
+        <v>4807291007.430395</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1428944578753374</v>
+        <v>0.1481585333331001</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01997811441940224</v>
+        <v>0.03234328251170644</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3627847771.688749</v>
+        <v>4256081701.935881</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1459079305474296</v>
+        <v>0.1252410069606321</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03724181922280014</v>
+        <v>0.03986894804967328</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2753627919.474577</v>
+        <v>2568662111.616052</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08164217344459292</v>
+        <v>0.1022875741392655</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0428777714575784</v>
+        <v>0.03672572123199635</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5289521530.371042</v>
+        <v>4236909470.725161</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1284525536250278</v>
+        <v>0.1419369652627653</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04069236392277039</v>
+        <v>0.03701649619267969</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2181977847.926497</v>
+        <v>2054621289.80967</v>
       </c>
       <c r="F69" t="n">
-        <v>0.125541161072313</v>
+        <v>0.1503043157319384</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03756393960752848</v>
+        <v>0.04096500647575099</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3594620348.491701</v>
+        <v>2977164830.143304</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07301601927413291</v>
+        <v>0.0882887425783523</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03980630340609716</v>
+        <v>0.0352274910475994</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3830687339.608719</v>
+        <v>3528607776.577398</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1161093764633198</v>
+        <v>0.1701420085424416</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03005150908517143</v>
+        <v>0.03402505196171864</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1717574924.466638</v>
+        <v>1847012554.896964</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09882240039048738</v>
+        <v>0.08438319595314719</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05175863494641828</v>
+        <v>0.03759940341001253</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3086549187.161016</v>
+        <v>3359727032.861698</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09065311816099264</v>
+        <v>0.09671364164151351</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04553549144472942</v>
+        <v>0.04727236167821244</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2946797005.703185</v>
+        <v>2545871638.315516</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1336221675577413</v>
+        <v>0.1183956418098346</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02909369017294942</v>
+        <v>0.02688845614221513</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1837221685.712065</v>
+        <v>1899234127.244093</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1199839573843428</v>
+        <v>0.1605913836664866</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03013892216348057</v>
+        <v>0.02572378359355338</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5056653509.356695</v>
+        <v>4092939951.909313</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08172604136317832</v>
+        <v>0.1099606356766122</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0252085777958057</v>
+        <v>0.02163181987200971</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1799775535.215021</v>
+        <v>1955373952.088027</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18683874791948</v>
+        <v>0.1638353733855024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02659112512944332</v>
+        <v>0.01984838248664509</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3427220186.648127</v>
+        <v>3400314909.827007</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1060808750133133</v>
+        <v>0.09205381216199762</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0364805073260796</v>
+        <v>0.0397670532894815</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476688870.806167</v>
+        <v>1453950121.550238</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1292677953650324</v>
+        <v>0.1642307088435447</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02787270810204814</v>
+        <v>0.03414097782396223</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3455198254.775969</v>
+        <v>5222097175.111162</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07192463969754763</v>
+        <v>0.07723535763811193</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03647106695312548</v>
+        <v>0.02685525223009732</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3787781784.961918</v>
+        <v>4788725700.470295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1037871401874737</v>
+        <v>0.08684393803608687</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02208262428820644</v>
+        <v>0.02255403707195929</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3476312863.980195</v>
+        <v>4129473190.376844</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1743478199090903</v>
+        <v>0.2172205289743314</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02802210056481786</v>
+        <v>0.01938200430703675</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1889139341.718647</v>
+        <v>1627545522.607983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1264557672126494</v>
+        <v>0.09575575572800307</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03639174678709523</v>
+        <v>0.03148438327200063</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2485982750.084025</v>
+        <v>1764768972.022826</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094483166117092</v>
+        <v>0.1156016506407157</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04738214577240343</v>
+        <v>0.04040375828066896</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3060625104.970135</v>
+        <v>3465360899.724772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1243566787271609</v>
+        <v>0.1367724437590833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04714393219910964</v>
+        <v>0.03948086928356236</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2222574094.779281</v>
+        <v>1715570493.920337</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1313175821639947</v>
+        <v>0.1344007449004002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01992807227633108</v>
+        <v>0.02011515479428307</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1506184828.433693</v>
+        <v>908022500.9157271</v>
       </c>
       <c r="F87" t="n">
-        <v>0.173974190580867</v>
+        <v>0.1442282100605223</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03999727462434517</v>
+        <v>0.03397371125933834</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3213487972.236472</v>
+        <v>2572649008.323043</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1235811177490714</v>
+        <v>0.1255679700170149</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02865757884182238</v>
+        <v>0.03166882976094323</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2334353730.028058</v>
+        <v>2819649098.365658</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1481497995571335</v>
+        <v>0.1590608557874284</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03394762247269337</v>
+        <v>0.03082821403260038</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1413542665.152402</v>
+        <v>1434470547.344809</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1044324774031872</v>
+        <v>0.1194279878076665</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05603193624029303</v>
+        <v>0.04559670877973125</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2003866210.918303</v>
+        <v>1742024717.403788</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1388659014268429</v>
+        <v>0.1388087386759335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511921915693179</v>
+        <v>0.05027010638605616</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1852348255.344719</v>
+        <v>2403684908.816988</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1096285410233453</v>
+        <v>0.08411091414371916</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0290708469932552</v>
+        <v>0.03323818120689737</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3854470778.414222</v>
+        <v>3554889347.157412</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1282876080353201</v>
+        <v>0.1043956734969254</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03554490993712635</v>
+        <v>0.03952647536807757</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2483294255.115471</v>
+        <v>1665572762.683132</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1548336449066373</v>
+        <v>0.1688046369593058</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02673822050907223</v>
+        <v>0.02972121156265457</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2041213184.482306</v>
+        <v>2422075374.461839</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1118904528510615</v>
+        <v>0.136339976045609</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05293227600526074</v>
+        <v>0.05302163564727006</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2025669503.988458</v>
+        <v>2329413428.23631</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323446602252117</v>
+        <v>0.1371166093965359</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04335221645181354</v>
+        <v>0.04025626557903068</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4140494258.407088</v>
+        <v>4683412682.524343</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1183688109426258</v>
+        <v>0.1490702627258982</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02480627348147527</v>
+        <v>0.02199916115054229</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012402183.39704</v>
+        <v>3335660575.181103</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09228437035126441</v>
+        <v>0.1192225183731216</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02223079486724616</v>
+        <v>0.02384252337133589</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2734048662.157255</v>
+        <v>2315035589.307658</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1242367605945105</v>
+        <v>0.1363783775935162</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0247840405620996</v>
+        <v>0.02916507332722248</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3875127618.528064</v>
+        <v>3739024821.872935</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1340519082682302</v>
+        <v>0.1359888685012059</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01900764582024371</v>
+        <v>0.01947841047106218</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3154054096.98231</v>
+        <v>2398518988.173144</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1908571812258723</v>
+        <v>0.2154962202315737</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04946859472238931</v>
+        <v>0.05708686276584923</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_162.xlsx
+++ b/output/fit_clients/fit_round_162.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1979772675.982674</v>
+        <v>2088404620.330519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08978656285573527</v>
+        <v>0.09551799099207374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03945944268450285</v>
+        <v>0.03360578297905709</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1798329069.765955</v>
+        <v>2165803589.6652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1542947982787236</v>
+        <v>0.1483456714631577</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03144746485278723</v>
+        <v>0.03238735576774111</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4795801582.657955</v>
+        <v>3731836412.812199</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300996636761956</v>
+        <v>0.1038695530859237</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03733363819585522</v>
+        <v>0.03371036446259482</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>161</v>
+      </c>
+      <c r="K4" t="n">
+        <v>112.3625183671357</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2905742487.498992</v>
+        <v>3285059521.654084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031664851408879</v>
+        <v>0.09733563859201341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04118855996263918</v>
+        <v>0.03237794421192249</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>160</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1928017218.180406</v>
+        <v>2470714356.227705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1118166028242053</v>
+        <v>0.1130901155515663</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0370099029030969</v>
+        <v>0.03723926925225782</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2769239910.75247</v>
+        <v>2523603765.398111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09190074444570451</v>
+        <v>0.06515608720425316</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04058737160429291</v>
+        <v>0.03552165547631354</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2478565836.171359</v>
+        <v>2706419557.313548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.152500173288069</v>
+        <v>0.2211457417920353</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02043195281340481</v>
+        <v>0.03070387039602807</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>159</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1717771608.468088</v>
+        <v>1557437432.322664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1481989477581949</v>
+        <v>0.1535884583030518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02507553341428692</v>
+        <v>0.03465282403179606</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4701479153.654201</v>
+        <v>4960343039.359714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1459531010397132</v>
+        <v>0.1578362888285337</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03650582555393463</v>
+        <v>0.03513199010018114</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>149</v>
+      </c>
+      <c r="J10" t="n">
+        <v>162</v>
+      </c>
+      <c r="K10" t="n">
+        <v>146.8006977696142</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3042704392.298206</v>
+        <v>2828479564.643059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1581861049806059</v>
+        <v>0.1876229082115793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04752006393016843</v>
+        <v>0.03079411228867376</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3085029050.421859</v>
+        <v>3304830236.909754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1992082459383803</v>
+        <v>0.1199595236015123</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0533522111987182</v>
+        <v>0.03534566941382512</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5316845269.430598</v>
+        <v>4067523733.200341</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08802239265579122</v>
+        <v>0.08106613667038375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02412552040883036</v>
+        <v>0.02425843842306779</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>79</v>
+      </c>
+      <c r="J13" t="n">
+        <v>162</v>
+      </c>
+      <c r="K13" t="n">
+        <v>131.9008569077597</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2483122643.616327</v>
+        <v>2375255783.83867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362028332529516</v>
+        <v>0.1650864393422683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03407893747195707</v>
+        <v>0.04097008923857704</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1376297293.718002</v>
+        <v>1514083359.715488</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08495584338632751</v>
+        <v>0.09688180655329875</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04361445149317224</v>
+        <v>0.04404770802207453</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2843097902.485013</v>
+        <v>2905928768.2897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09226652374771209</v>
+        <v>0.09473685259413103</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03946525390374465</v>
+        <v>0.03830812047257839</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3932016020.204696</v>
+        <v>3787417035.345064</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198834195767272</v>
+        <v>0.1451342349357788</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03933306533129715</v>
+        <v>0.03847952265403392</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>78</v>
+      </c>
+      <c r="J17" t="n">
+        <v>162</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3674186009.097986</v>
+        <v>2504378725.188425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1673069460175575</v>
+        <v>0.1332202282381724</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03082582609529329</v>
+        <v>0.02335732092548099</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.52261734230562</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1258962143.993228</v>
+        <v>1334761193.652132</v>
       </c>
       <c r="F19" t="n">
-        <v>0.156062595059428</v>
+        <v>0.1784917212477598</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02633303561325548</v>
+        <v>0.02461882684720329</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2049849203.380921</v>
+        <v>2710193490.44137</v>
       </c>
       <c r="F20" t="n">
-        <v>0.138313385007594</v>
+        <v>0.1057247971718578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02667695908413074</v>
+        <v>0.02824276409322746</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2158453867.984609</v>
+        <v>2338986556.115571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08260050616053342</v>
+        <v>0.06203713070157316</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04034905116470268</v>
+        <v>0.03480265286469744</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3858907867.662842</v>
+        <v>3848386259.372061</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102012922613703</v>
+        <v>0.08709597716738557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04517442612944791</v>
+        <v>0.04547458155502957</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41</v>
+      </c>
+      <c r="J22" t="n">
+        <v>162</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1399544780.633</v>
+        <v>1501908833.144373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1508509237767371</v>
+        <v>0.1363502183972583</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0453709719897006</v>
+        <v>0.04206377259915047</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2901105182.368737</v>
+        <v>3322730075.444229</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1258137379661814</v>
+        <v>0.1004675734612469</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02805590409035257</v>
+        <v>0.03488763491039887</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>48</v>
+      </c>
+      <c r="J24" t="n">
+        <v>162</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>901613323.6999998</v>
+        <v>1443247582.543247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09375684048493388</v>
+        <v>0.08455692747424624</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02823822498717089</v>
+        <v>0.02952024868841862</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1023185311.270979</v>
+        <v>905102408.3695076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1188299591693369</v>
+        <v>0.08172008223393719</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03260821714618488</v>
+        <v>0.02584959926793763</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3369425558.770428</v>
+        <v>4047862093.12003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1110647766385169</v>
+        <v>0.1367227344818514</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02346013122418002</v>
+        <v>0.02094465788382503</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>64</v>
+      </c>
+      <c r="J27" t="n">
+        <v>161</v>
+      </c>
+      <c r="K27" t="n">
+        <v>113.5273282533108</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2455716025.721963</v>
+        <v>3178132523.333356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1151579238655158</v>
+        <v>0.09898933036919452</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05019455375278792</v>
+        <v>0.04922171059187362</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5174479119.697348</v>
+        <v>4387337077.63939</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1207401128960307</v>
+        <v>0.1011742494361178</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04643878167764435</v>
+        <v>0.0411995387255631</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>151</v>
+      </c>
+      <c r="J29" t="n">
+        <v>162</v>
+      </c>
+      <c r="K29" t="n">
+        <v>156.2272711778817</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1466949510.321486</v>
+        <v>1947528549.855671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09120300708343732</v>
+        <v>0.1337102640875917</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03914315892325355</v>
+        <v>0.03382593516742689</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1367135519.802317</v>
+        <v>1206999059.221962</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06816906965048414</v>
+        <v>0.1053537750933134</v>
       </c>
       <c r="G31" t="n">
-        <v>0.040231857695712</v>
+        <v>0.0520864358548409</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1352366813.323843</v>
+        <v>1695666368.466142</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0995359543619346</v>
+        <v>0.1130531294392267</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03152086033598902</v>
+        <v>0.02610110556636615</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2212321710.356863</v>
+        <v>2372359775.908123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1706074244201261</v>
+        <v>0.1778654259747064</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04243113120946017</v>
+        <v>0.05251913677540774</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1294167020.605709</v>
+        <v>1193878527.050139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1191266069838627</v>
+        <v>0.12080531977634</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02120230990114802</v>
+        <v>0.0241872770627852</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137875358.985021</v>
+        <v>975679771.5395491</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08089811697213062</v>
+        <v>0.08516274888342434</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03281124662447284</v>
+        <v>0.04099397332877243</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2357757449.373532</v>
+        <v>2212217808.834105</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1648738610567528</v>
+        <v>0.1479571617406188</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02252523159912678</v>
+        <v>0.02023399955627795</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2868049667.03488</v>
+        <v>2506301002.896525</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0831842847366239</v>
+        <v>0.06777244723348272</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02863421994106896</v>
+        <v>0.0388787994849585</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1485831904.970888</v>
+        <v>1469866355.865652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07607263844997256</v>
+        <v>0.1154831719422955</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03818659424569376</v>
+        <v>0.03588648549377397</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2143432954.679784</v>
+        <v>1513222904.978559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1205174491739098</v>
+        <v>0.1784758625684266</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02876517690368434</v>
+        <v>0.02733593363934168</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1391538322.869242</v>
+        <v>1699578525.726852</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1592177283938981</v>
+        <v>0.1532758394861611</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05865421924155579</v>
+        <v>0.03876600228348441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2380438813.627499</v>
+        <v>2270792921.50817</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1619860388153954</v>
+        <v>0.1372871823081713</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02902749269697954</v>
+        <v>0.04657911856309374</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3109197610.487334</v>
+        <v>3632927542.551184</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08195580673724595</v>
+        <v>0.08592673470262516</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03292595292769384</v>
+        <v>0.03206766032386059</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>60</v>
+      </c>
+      <c r="J42" t="n">
+        <v>162</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2573906421.705806</v>
+        <v>2536127619.383964</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1911724766889947</v>
+        <v>0.1994697427759773</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02418559522721963</v>
+        <v>0.02429749912590836</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2228755748.752795</v>
+        <v>1654510993.972173</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09176940600336086</v>
+        <v>0.08350705195762402</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02505282766317424</v>
+        <v>0.03417599826616644</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1924392671.446535</v>
+        <v>2252193790.137009</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1407412177126025</v>
+        <v>0.1734471988713996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03718675899407276</v>
+        <v>0.05053133775999302</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5226734807.153105</v>
+        <v>4445687761.430892</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1128081015168437</v>
+        <v>0.1709357733960565</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03945436655259958</v>
+        <v>0.05435116590683349</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>91</v>
+      </c>
+      <c r="J46" t="n">
+        <v>162</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4901683801.348719</v>
+        <v>4571683576.292264</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2027081124663372</v>
+        <v>0.1464703949875993</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05955482037894155</v>
+        <v>0.04429508063617184</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>72</v>
+      </c>
+      <c r="J47" t="n">
+        <v>161</v>
+      </c>
+      <c r="K47" t="n">
+        <v>110.9066317146632</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4005732404.799384</v>
+        <v>3786615780.218158</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0682460666178802</v>
+        <v>0.07713158016630239</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02463578415199477</v>
+        <v>0.03307999692595334</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>72</v>
+      </c>
+      <c r="J48" t="n">
+        <v>162</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1511319348.788573</v>
+        <v>1467956605.178029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1887458513661809</v>
+        <v>0.1861865722743929</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03384641423537336</v>
+        <v>0.04061618460576764</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3424788447.909147</v>
+        <v>2682597121.166602</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1219767664188163</v>
+        <v>0.1174569898166481</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04629045879496728</v>
+        <v>0.03376558901828873</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>54</v>
+      </c>
+      <c r="J50" t="n">
+        <v>161</v>
+      </c>
+      <c r="K50" t="n">
+        <v>58.62764858274296</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>993570190.9087968</v>
+        <v>1385011934.981598</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213137423949815</v>
+        <v>0.1582383397866466</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04053821250793758</v>
+        <v>0.05288232619297447</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4784040838.663828</v>
+        <v>3374088290.000684</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1063560072900036</v>
+        <v>0.1117036410449173</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04905451049707314</v>
+        <v>0.04961044040751441</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>117</v>
+      </c>
+      <c r="J52" t="n">
+        <v>161</v>
+      </c>
+      <c r="K52" t="n">
+        <v>93.59243178827172</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3747891575.664244</v>
+        <v>3743268269.83796</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1532836704578814</v>
+        <v>0.1938283802323448</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02613435010305938</v>
+        <v>0.02196832455707436</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4190079008.026338</v>
+        <v>3873255248.331861</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1176282948630293</v>
+        <v>0.1280840085243862</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04441144916385236</v>
+        <v>0.0430802588635583</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>79</v>
+      </c>
+      <c r="J54" t="n">
+        <v>161</v>
+      </c>
+      <c r="K54" t="n">
+        <v>126.9117043207135</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3815262705.937717</v>
+        <v>4039918209.699833</v>
       </c>
       <c r="F55" t="n">
-        <v>0.181545497789075</v>
+        <v>0.1478362291875085</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02098277075358937</v>
+        <v>0.02895432923872575</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>74</v>
+      </c>
+      <c r="J55" t="n">
+        <v>161</v>
+      </c>
+      <c r="K55" t="n">
+        <v>127.4676275678144</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1320139763.210712</v>
+        <v>1709448336.146456</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1236325981556439</v>
+        <v>0.1160896791320849</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04883504407024406</v>
+        <v>0.05801714431971997</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3066830305.918593</v>
+        <v>3091157733.536536</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570635735340756</v>
+        <v>0.1691421449188133</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02586448054135127</v>
+        <v>0.0249427037542412</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>66</v>
+      </c>
+      <c r="J57" t="n">
+        <v>160</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1461719191.03478</v>
+        <v>1471797636.247684</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1542884986979239</v>
+        <v>0.1417579389235175</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03945223590344209</v>
+        <v>0.02707768876294123</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3769471966.661998</v>
+        <v>4300037510.868487</v>
       </c>
       <c r="F59" t="n">
-        <v>0.128572139671069</v>
+        <v>0.1037924884417217</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04784945582507274</v>
+        <v>0.03691862127399693</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>78</v>
+      </c>
+      <c r="J59" t="n">
+        <v>161</v>
+      </c>
+      <c r="K59" t="n">
+        <v>124.0489314524646</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3450744160.656343</v>
+        <v>3108627546.590163</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1344944419984263</v>
+        <v>0.1759921446235801</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02763115942258836</v>
+        <v>0.0242051084560886</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2879345287.068838</v>
+        <v>2354570060.794678</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1711496406464089</v>
+        <v>0.1128128729752603</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02952133341375276</v>
+        <v>0.03271116041028776</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1919201834.016603</v>
+        <v>1765135315.021251</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1773992178991625</v>
+        <v>0.1362324946928754</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03368786382216338</v>
+        <v>0.03010174019335892</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4371633349.899444</v>
+        <v>4233273385.17693</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0965641413450488</v>
+        <v>0.09772425700109397</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04140059520330017</v>
+        <v>0.03990359458796484</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>79</v>
+      </c>
+      <c r="J63" t="n">
+        <v>162</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3387287809.563027</v>
+        <v>4548992252.448294</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1541706236581163</v>
+        <v>0.1917369720439228</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02423311113854922</v>
+        <v>0.02592406393801702</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>80</v>
+      </c>
+      <c r="J64" t="n">
+        <v>161</v>
+      </c>
+      <c r="K64" t="n">
+        <v>127.580682569896</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4807291007.430395</v>
+        <v>5525171273.734231</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1481585333331001</v>
+        <v>0.1279100364905967</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03234328251170644</v>
+        <v>0.02414762150391772</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>134</v>
+      </c>
+      <c r="J65" t="n">
+        <v>162</v>
+      </c>
+      <c r="K65" t="n">
+        <v>136.6580584627846</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4256081701.935881</v>
+        <v>5094977155.702706</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1252410069606321</v>
+        <v>0.1090847583292776</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03986894804967328</v>
+        <v>0.04714554076932695</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>80</v>
+      </c>
+      <c r="J66" t="n">
+        <v>161</v>
+      </c>
+      <c r="K66" t="n">
+        <v>123.9336676898916</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2568662111.616052</v>
+        <v>3133952846.778826</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022875741392655</v>
+        <v>0.07223600866390907</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03672572123199635</v>
+        <v>0.05106027984891699</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4236909470.725161</v>
+        <v>5444230855.324188</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1419369652627653</v>
+        <v>0.1512772114869256</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03701649619267969</v>
+        <v>0.04243490019692089</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>81</v>
+      </c>
+      <c r="J68" t="n">
+        <v>162</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2054621289.80967</v>
+        <v>1560831678.918795</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1503043157319384</v>
+        <v>0.1416187577744427</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04096500647575099</v>
+        <v>0.04860944613969768</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2977164830.143304</v>
+        <v>2584558898.750975</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0882887425783523</v>
+        <v>0.07786968599877089</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0352274910475994</v>
+        <v>0.0471730966666598</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>161</v>
+      </c>
+      <c r="K70" t="n">
+        <v>51.18493995938085</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3528607776.577398</v>
+        <v>5194183349.288148</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1701420085424416</v>
+        <v>0.1585075621050454</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402505196171864</v>
+        <v>0.03183327746276873</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>127</v>
+      </c>
+      <c r="J71" t="n">
+        <v>162</v>
+      </c>
+      <c r="K71" t="n">
+        <v>135.6658617111126</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1847012554.896964</v>
+        <v>1906515551.310083</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08438319595314719</v>
+        <v>0.07365349162815052</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03759940341001253</v>
+        <v>0.05116055941443492</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3359727032.861698</v>
+        <v>2960597549.439422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09671364164151351</v>
+        <v>0.06954836424216237</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04727236167821244</v>
+        <v>0.03385870907638134</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2545871638.315516</v>
+        <v>2899036866.158428</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1183956418098346</v>
+        <v>0.1755072754515263</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02688845614221513</v>
+        <v>0.02392084548828773</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1899234127.244093</v>
+        <v>1964821095.53448</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1605913836664866</v>
+        <v>0.1080689797882529</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02572378359355338</v>
+        <v>0.0260862427862459</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4092939951.909313</v>
+        <v>3720108470.159845</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1099606356766122</v>
+        <v>0.09672597737757538</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02163181987200971</v>
+        <v>0.02852432056984058</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+      <c r="J76" t="n">
+        <v>162</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1955373952.088027</v>
+        <v>1405256378.383032</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1638353733855024</v>
+        <v>0.147497854770738</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01984838248664509</v>
+        <v>0.0313260478660566</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3400314909.827007</v>
+        <v>3928927297.974559</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09205381216199762</v>
+        <v>0.1329200547714303</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0397670532894815</v>
+        <v>0.04093702743525303</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>83</v>
+      </c>
+      <c r="J78" t="n">
+        <v>161</v>
+      </c>
+      <c r="K78" t="n">
+        <v>129.9329182498462</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1453950121.550238</v>
+        <v>1866355626.527261</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1642307088435447</v>
+        <v>0.1489733990071393</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03414097782396223</v>
+        <v>0.0258091339676313</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5222097175.111162</v>
+        <v>4361455867.986103</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07723535763811193</v>
+        <v>0.09940336406370179</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02685525223009732</v>
+        <v>0.02447673616414316</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>79</v>
+      </c>
+      <c r="J80" t="n">
+        <v>161</v>
+      </c>
+      <c r="K80" t="n">
+        <v>99.66574333941013</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4788725700.470295</v>
+        <v>3994542769.847356</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08684393803608687</v>
+        <v>0.1019123937568497</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02255403707195929</v>
+        <v>0.02204584123927893</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>74</v>
+      </c>
+      <c r="J81" t="n">
+        <v>162</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4129473190.376844</v>
+        <v>4023507611.395599</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2172205289743314</v>
+        <v>0.1437453977607293</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01938200430703675</v>
+        <v>0.02588457273194424</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>117</v>
+      </c>
+      <c r="J82" t="n">
+        <v>162</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1627545522.607983</v>
+        <v>2318098264.596563</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09575575572800307</v>
+        <v>0.1428721381951541</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03148438327200063</v>
+        <v>0.0349675655135102</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1764768972.022826</v>
+        <v>1718127874.733587</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156016506407157</v>
+        <v>0.1093860041777088</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04040375828066896</v>
+        <v>0.04439801584598476</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3465360899.724772</v>
+        <v>3518839202.142063</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1367724437590833</v>
+        <v>0.1574030875602384</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03948086928356236</v>
+        <v>0.03904985031092367</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1715570493.920337</v>
+        <v>2414964376.035059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1344007449004002</v>
+        <v>0.128494536006272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02011515479428307</v>
+        <v>0.01887630851484066</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>908022500.9157271</v>
+        <v>1342862130.48204</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1442282100605223</v>
+        <v>0.1457462070891423</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03397371125933834</v>
+        <v>0.02732134941978133</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2572649008.323043</v>
+        <v>2765275410.242435</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1255679700170149</v>
+        <v>0.1161035935949136</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03166882976094323</v>
+        <v>0.03610897433576925</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2819649098.365658</v>
+        <v>2208860179.605402</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1590608557874284</v>
+        <v>0.1462681957267513</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03082821403260038</v>
+        <v>0.02995705557172949</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1434470547.344809</v>
+        <v>2030865288.313076</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1194279878076665</v>
+        <v>0.1292404991307036</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04559670877973125</v>
+        <v>0.04053471636486621</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1742024717.403788</v>
+        <v>1817136173.352766</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1388087386759335</v>
+        <v>0.1378980418706942</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05027010638605616</v>
+        <v>0.05945194855069578</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2403684908.816988</v>
+        <v>2323307780.070555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08411091414371916</v>
+        <v>0.1017874176503928</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03323818120689737</v>
+        <v>0.03284488909555224</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3554889347.157412</v>
+        <v>4974334872.077888</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1043956734969254</v>
+        <v>0.1270547082122425</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03952647536807757</v>
+        <v>0.04390300599567739</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>72</v>
+      </c>
+      <c r="J93" t="n">
+        <v>162</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1665572762.683132</v>
+        <v>1967707512.580704</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1688046369593058</v>
+        <v>0.1373405888670445</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02972121156265457</v>
+        <v>0.03935808758992847</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2422075374.461839</v>
+        <v>2316604198.80631</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136339976045609</v>
+        <v>0.1276654236319655</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05302163564727006</v>
+        <v>0.04853806480584461</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2329413428.23631</v>
+        <v>2025177641.841401</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1371166093965359</v>
+        <v>0.1268795029432144</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04025626557903068</v>
+        <v>0.03551891529588234</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4683412682.524343</v>
+        <v>3691198800.741589</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1490702627258982</v>
+        <v>0.1547909500296636</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02199916115054229</v>
+        <v>0.01906566406494993</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>78</v>
+      </c>
+      <c r="J97" t="n">
+        <v>161</v>
+      </c>
+      <c r="K97" t="n">
+        <v>109.3870715513867</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3335660575.181103</v>
+        <v>3210846587.097109</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1192225183731216</v>
+        <v>0.1262828714733633</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02384252337133589</v>
+        <v>0.02878408059907618</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>38</v>
+      </c>
+      <c r="J98" t="n">
+        <v>160</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2315035589.307658</v>
+        <v>2597826876.367609</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1363783775935162</v>
+        <v>0.09199298637591448</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02916507332722248</v>
+        <v>0.02220107415438177</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3739024821.872935</v>
+        <v>4341846086.945002</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1359888685012059</v>
+        <v>0.1430785430352841</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01947841047106218</v>
+        <v>0.02411005481537591</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>67</v>
+      </c>
+      <c r="J100" t="n">
+        <v>162</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2398518988.173144</v>
+        <v>3129474860.072283</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2154962202315737</v>
+        <v>0.2027247829767199</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05708686276584923</v>
+        <v>0.0410455460219044</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
